--- a/features.xlsx
+++ b/features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/Desktop/UoM/24S2/COMP90089/COMP90089_MLAH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48A0627-9354-B54D-AC3A-DBFE259A350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C909062-FF1D-FB4C-BF28-84009DF7B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="4660" windowWidth="28040" windowHeight="17440" xr2:uid="{671DAF07-F93B-3847-8217-8C8B82E9B003}"/>
+    <workbookView xWindow="6060" yWindow="500" windowWidth="28040" windowHeight="20980" xr2:uid="{671DAF07-F93B-3847-8217-8C8B82E9B003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,54 +36,477 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Actual_age</t>
-  </si>
-  <si>
-    <t>In_hospital_death</t>
-  </si>
-  <si>
-    <t>Length_of_stay</t>
-  </si>
-  <si>
-    <t>Amylase_level</t>
-  </si>
-  <si>
-    <t>Crp_level</t>
-  </si>
-  <si>
-    <t>Is_confirmed_ap</t>
-  </si>
-  <si>
-    <t>Average_weight</t>
-  </si>
-  <si>
-    <t>Charlson_comorbidity_index</t>
-  </si>
-  <si>
-    <t>Respiratory_rate</t>
-  </si>
-  <si>
-    <t>Heart_rate</t>
-  </si>
-  <si>
-    <t>Oxygen_saturation</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>NaN values and their counts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>lipase_level</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>NaN Count</t>
+  </si>
+  <si>
+    <t>Description (单位)</t>
+  </si>
+  <si>
+    <t>中文说明</t>
+  </si>
+  <si>
+    <t>hadm_id</t>
+  </si>
+  <si>
+    <t>Hospital admission ID</t>
+  </si>
+  <si>
+    <t>住院就诊ID</t>
+  </si>
+  <si>
+    <t>charttime</t>
+  </si>
+  <si>
+    <t>Lipase level (U/L)</t>
+  </si>
+  <si>
+    <t>脂肪酶水平测量值</t>
+  </si>
+  <si>
+    <t>admittime</t>
+  </si>
+  <si>
+    <t>Admission time</t>
+  </si>
+  <si>
+    <t>入院时间</t>
+  </si>
+  <si>
+    <t>dischtime</t>
+  </si>
+  <si>
+    <t>Discharge time</t>
+  </si>
+  <si>
+    <t>出院时间</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender of the patient</t>
+  </si>
+  <si>
+    <t>患者性别</t>
+  </si>
+  <si>
+    <t>approximate_age_at_admission</t>
+  </si>
+  <si>
+    <t>Approximate age at admission (years)</t>
+  </si>
+  <si>
+    <t>入院时的近似年龄</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>Race of the patient</t>
+  </si>
+  <si>
+    <t>患者种族</t>
+  </si>
+  <si>
+    <t>actual_age</t>
+  </si>
+  <si>
+    <t>Actual age (years)</t>
+  </si>
+  <si>
+    <t>实际年龄</t>
+  </si>
+  <si>
+    <t>in_hospital_death</t>
+  </si>
+  <si>
+    <t>In-hospital death status (1 = Yes, 0 = No)</t>
+  </si>
+  <si>
+    <t>住院死亡状态</t>
+  </si>
+  <si>
+    <t>length_of_stay</t>
+  </si>
+  <si>
+    <t>Length of stay (days)</t>
+  </si>
+  <si>
+    <t>住院时长，单位为天</t>
+  </si>
+  <si>
+    <t>Amylase level (U/L)</t>
+  </si>
+  <si>
+    <t>crp_level</t>
+  </si>
+  <si>
+    <t>C-reactive protein level (mg/L)</t>
+  </si>
+  <si>
+    <t>C反应蛋白水平</t>
+  </si>
+  <si>
+    <t>icd_code</t>
+  </si>
+  <si>
+    <t>ICD diagnosis code</t>
+  </si>
+  <si>
+    <t>国际疾病分类编码</t>
+  </si>
+  <si>
+    <t>average_weight</t>
+  </si>
+  <si>
+    <t>Average weight (kg)</t>
+  </si>
+  <si>
+    <t>平均体重</t>
+  </si>
+  <si>
+    <t>charlson_comorbidity_index</t>
+  </si>
+  <si>
+    <t>Charlson Comorbidity Index</t>
+  </si>
+  <si>
+    <t>查尔森合并症指数</t>
+  </si>
+  <si>
+    <t>average_height</t>
+  </si>
+  <si>
+    <t>Average height (cm)</t>
+  </si>
+  <si>
+    <t>平均身高</t>
+  </si>
+  <si>
+    <t>first_charttime_vital</t>
+  </si>
+  <si>
+    <t>First vital signs chart time</t>
+  </si>
+  <si>
+    <t>生命体征首次记录时间</t>
+  </si>
+  <si>
+    <t>heart_rate_vital</t>
+  </si>
+  <si>
+    <t>Heart rate (beats/min)</t>
+  </si>
+  <si>
+    <t>心率</t>
+  </si>
+  <si>
+    <t>sbp_vital</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>收缩压</t>
+  </si>
+  <si>
+    <t>dbp_vital</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>舒张压</t>
+  </si>
+  <si>
+    <t>mbp_vital</t>
+  </si>
+  <si>
+    <t>Mean blood pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>平均血压</t>
+  </si>
+  <si>
+    <t>resp_rate_vital</t>
+  </si>
+  <si>
+    <t>Respiratory rate (breaths/min)</t>
+  </si>
+  <si>
+    <t>呼吸频率</t>
+  </si>
+  <si>
+    <t>temperature_c_vital</t>
+  </si>
+  <si>
+    <t>Temperature in Celsius (°C)</t>
+  </si>
+  <si>
+    <t>体温，摄氏度</t>
+  </si>
+  <si>
+    <t>spo2_vital</t>
+  </si>
+  <si>
+    <t>Oxygen saturation (%)</t>
+  </si>
+  <si>
+    <t>血氧饱和度</t>
+  </si>
+  <si>
+    <t>first_charttime_chemistry</t>
+  </si>
+  <si>
+    <t>First chemistry chart time</t>
+  </si>
+  <si>
+    <t>化学指标首次记录时间</t>
+  </si>
+  <si>
+    <t>albumin_chemistry</t>
+  </si>
+  <si>
+    <t>Albumin level (g/dL)</t>
+  </si>
+  <si>
+    <t>白蛋白水平</t>
+  </si>
+  <si>
+    <t>globulin_chemistry</t>
+  </si>
+  <si>
+    <t>Globulin level (g/dL)</t>
+  </si>
+  <si>
+    <t>球蛋白水平</t>
+  </si>
+  <si>
+    <t>total_protein_chemistry</t>
+  </si>
+  <si>
+    <t>Total protein level (g/dL)</t>
+  </si>
+  <si>
+    <t>总蛋白水平</t>
+  </si>
+  <si>
+    <t>aniongap_chemistry</t>
+  </si>
+  <si>
+    <t>Anion gap level (mEq/L)</t>
+  </si>
+  <si>
+    <t>阴离子间隙</t>
+  </si>
+  <si>
+    <t>bicarbonate_chemistry</t>
+  </si>
+  <si>
+    <t>Bicarbonate level (mEq/L)</t>
+  </si>
+  <si>
+    <t>二氧化碳结合力/碳酸氢根水平</t>
+  </si>
+  <si>
+    <t>bun_chemistry</t>
+  </si>
+  <si>
+    <t>Blood urea nitrogen level (mg/dL)</t>
+  </si>
+  <si>
+    <t>血尿素氮水平</t>
+  </si>
+  <si>
+    <t>calcium_chemistry</t>
+  </si>
+  <si>
+    <t>Calcium level (mg/dL)</t>
+  </si>
+  <si>
+    <t>钙水平</t>
+  </si>
+  <si>
+    <t>chloride_chemistry</t>
+  </si>
+  <si>
+    <t>Chloride level (mEq/L)</t>
+  </si>
+  <si>
+    <t>氯离子水平</t>
+  </si>
+  <si>
+    <t>creatinine_chemistry</t>
+  </si>
+  <si>
+    <t>Creatinine level (mg/dL)</t>
+  </si>
+  <si>
+    <t>肌酐水平</t>
+  </si>
+  <si>
+    <t>glucose_chemistry</t>
+  </si>
+  <si>
+    <t>Glucose level (mg/dL)</t>
+  </si>
+  <si>
+    <t>葡萄糖水平</t>
+  </si>
+  <si>
+    <t>sodium_chemistry</t>
+  </si>
+  <si>
+    <t>Sodium level (mEq/L)</t>
+  </si>
+  <si>
+    <t>钠离子水平</t>
+  </si>
+  <si>
+    <t>potassium_chemistry</t>
+  </si>
+  <si>
+    <t>Potassium level (mEq/L)</t>
+  </si>
+  <si>
+    <t>钾离子水平</t>
+  </si>
+  <si>
+    <t>first_charttime_enzyme</t>
+  </si>
+  <si>
+    <t>First enzyme chart time</t>
+  </si>
+  <si>
+    <t>酶指标首次记录时间</t>
+  </si>
+  <si>
+    <t>alt_enzyme</t>
+  </si>
+  <si>
+    <t>Alanine transaminase (ALT) level (U/L)</t>
+  </si>
+  <si>
+    <t>谷丙转氨酶水平</t>
+  </si>
+  <si>
+    <t>alp_enzyme</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase (ALP) level (U/L)</t>
+  </si>
+  <si>
+    <t>碱性磷酸酶水平</t>
+  </si>
+  <si>
+    <t>ast_enzyme</t>
+  </si>
+  <si>
+    <t>Aspartate transaminase (AST) level (U/L)</t>
+  </si>
+  <si>
+    <t>谷草转氨酶水平</t>
+  </si>
+  <si>
+    <t>amylase_enzyme</t>
+  </si>
+  <si>
+    <t>淀粉酶水平</t>
+  </si>
+  <si>
+    <t>bilirubin_total_enzyme</t>
+  </si>
+  <si>
+    <t>Total bilirubin level (mg/dL)</t>
+  </si>
+  <si>
+    <t>总胆红素水平</t>
+  </si>
+  <si>
+    <t>bilirubin_direct_enzyme</t>
+  </si>
+  <si>
+    <t>Direct bilirubin level (mg/dL)</t>
+  </si>
+  <si>
+    <t>直接胆红素水平</t>
+  </si>
+  <si>
+    <t>bilirubin_indirect_enzyme</t>
+  </si>
+  <si>
+    <t>Indirect bilirubin level (mg/dL)</t>
+  </si>
+  <si>
+    <t>间接胆红素水平</t>
+  </si>
+  <si>
+    <t>ck_cpk_enzyme</t>
+  </si>
+  <si>
+    <t>Creatine kinase (CK) level (U/L)</t>
+  </si>
+  <si>
+    <t>肌酸激酶水平</t>
+  </si>
+  <si>
+    <t>ck_mb_enzyme</t>
+  </si>
+  <si>
+    <t>CK-MB level (U/L)</t>
+  </si>
+  <si>
+    <t>心肌型肌酸激酶水平</t>
+  </si>
+  <si>
+    <t>ggt_enzyme</t>
+  </si>
+  <si>
+    <t>Gamma-glutamyl transferase (GGT) level (U/L)</t>
+  </si>
+  <si>
+    <t>谷氨酰转肽酶水平</t>
+  </si>
+  <si>
+    <t>ld_ldh_enzyme</t>
+  </si>
+  <si>
+    <t>Lactate dehydrogenase (LDH) level (U/L)</t>
+  </si>
+  <si>
+    <t>乳酸脱氢酶水平</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>患者ID</t>
+  </si>
+  <si>
+    <t>is_confirmed_ap</t>
+  </si>
+  <si>
+    <t>Acute Pancreatitis (AP) diagnosis confirmation</t>
+  </si>
+  <si>
+    <t>急性胰腺炎确诊</t>
+  </si>
+  <si>
+    <t>Chart time for lipase event</t>
+  </si>
+  <si>
+    <t>lipase事件的记录时间</t>
   </si>
 </sst>
 </file>
@@ -105,33 +528,23 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -139,33 +552,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,129 +894,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12CB29-69D6-9341-970F-5DEE58B83ED9}">
-  <dimension ref="B2:Q3"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="B14">
+        <v>1934</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1934</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1890</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3486</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1793</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2643</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2839</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2838</v>
-      </c>
-      <c r="P3" s="5">
-        <v>3404</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3411</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>2286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>2731</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>2920</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>3396</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>2919</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>2919</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>2920</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>2921</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>2921</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>2919</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>2924</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>2921</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>1480</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30">
+        <v>4077</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>3888</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41">
+        <v>411</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>624</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>635</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>610</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45">
+        <v>2756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46">
+        <v>645</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47">
+        <v>3522</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48">
+        <v>3514</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49">
+        <v>2889</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50">
+        <v>3281</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51">
+        <v>4061</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52">
+        <v>1845</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/features.xlsx
+++ b/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/Desktop/UoM/24S2/COMP90089/COMP90089_MLAH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C909062-FF1D-FB4C-BF28-84009DF7B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B640FC-0DC6-B847-9B4D-D28955A0E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="500" windowWidth="28040" windowHeight="20980" xr2:uid="{671DAF07-F93B-3847-8217-8C8B82E9B003}"/>
+    <workbookView xWindow="-30540" yWindow="500" windowWidth="28040" windowHeight="20980" xr2:uid="{671DAF07-F93B-3847-8217-8C8B82E9B003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>lipase_level</t>
   </si>
   <si>
     <t>Column</t>
-  </si>
-  <si>
-    <t>NaN Count</t>
   </si>
   <si>
     <t>Description (单位)</t>
@@ -894,22 +891,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12CB29-69D6-9341-970F-5DEE58B83ED9}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,722 +915,566 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
         <v>152</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>153</v>
       </c>
-      <c r="D12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>1934</v>
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>155</v>
       </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>1934</v>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16">
-        <v>2286</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17">
-        <v>2731</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18">
-        <v>2920</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19">
-        <v>3396</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="B20">
-        <v>2919</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>54</v>
-      </c>
-      <c r="B21">
-        <v>2919</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>57</v>
-      </c>
-      <c r="B22">
-        <v>2920</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>60</v>
-      </c>
-      <c r="B23">
-        <v>2921</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>63</v>
-      </c>
-      <c r="B24">
-        <v>2921</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>66</v>
-      </c>
-      <c r="B25">
-        <v>2919</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>69</v>
-      </c>
-      <c r="B26">
-        <v>2924</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>72</v>
-      </c>
-      <c r="B27">
-        <v>2921</v>
       </c>
       <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>75</v>
-      </c>
-      <c r="B28">
-        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>78</v>
-      </c>
-      <c r="B29">
-        <v>1480</v>
       </c>
       <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>81</v>
-      </c>
-      <c r="B30">
-        <v>4077</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>84</v>
-      </c>
-      <c r="B31">
-        <v>3888</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>87</v>
-      </c>
-      <c r="B32">
-        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>90</v>
-      </c>
-      <c r="B33">
-        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>93</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>96</v>
-      </c>
-      <c r="B35">
-        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>97</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>99</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>102</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>105</v>
-      </c>
-      <c r="B38">
-        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>106</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>108</v>
-      </c>
-      <c r="B39">
-        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>111</v>
-      </c>
-      <c r="B40">
-        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>112</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>114</v>
-      </c>
-      <c r="B41">
-        <v>411</v>
       </c>
       <c r="C41" t="s">
         <v>115</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>117</v>
-      </c>
-      <c r="B42">
-        <v>624</v>
       </c>
       <c r="C42" t="s">
         <v>118</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>120</v>
-      </c>
-      <c r="B43">
-        <v>635</v>
       </c>
       <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>123</v>
-      </c>
-      <c r="B44">
-        <v>610</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
         <v>126</v>
       </c>
-      <c r="B45">
-        <v>2756</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>128</v>
-      </c>
-      <c r="B46">
-        <v>645</v>
       </c>
       <c r="C46" t="s">
         <v>129</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>131</v>
-      </c>
-      <c r="B47">
-        <v>3522</v>
       </c>
       <c r="C47" t="s">
         <v>132</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>134</v>
-      </c>
-      <c r="B48">
-        <v>3514</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>137</v>
-      </c>
-      <c r="B49">
-        <v>2889</v>
       </c>
       <c r="C49" t="s">
         <v>138</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>140</v>
-      </c>
-      <c r="B50">
-        <v>3281</v>
       </c>
       <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>143</v>
-      </c>
-      <c r="B51">
-        <v>4061</v>
       </c>
       <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>146</v>
-      </c>
-      <c r="B52">
-        <v>1845</v>
       </c>
       <c r="C52" t="s">
         <v>147</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
